--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7384A7-4CA1-4440-A598-B3A14B3060A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785A62F-D363-D940-AAFF-4110D4FCA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>List of file in git staging area</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>will return last commit of local and remote branches.  With this command you can check if local &amp; remote are in sync or not.</t>
+  </si>
+  <si>
+    <t>git commit --amend --author="shashanknew47&lt;shashank.edu@gmail.com&gt;"</t>
+  </si>
+  <si>
+    <t>git config user.name "shashanknew47"</t>
+  </si>
+  <si>
+    <t>git config user.email "shashank.edu@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --list </t>
   </si>
 </sst>
 </file>
@@ -358,13 +370,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,6 +399,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9435352</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1277471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF349B3-A983-2F45-120E-52706AAF64C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2906059" y="14044707"/>
+          <a:ext cx="9323293" cy="1269999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>If you want to change the name of commiter and email in the commit. Then </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; first</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> login in with username and username what you want to change with :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>      - git config user.name "shashank47.edu@gmail.com"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>         git config user.email "shashank.edu@gmail.com"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,341 +799,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8B4CD-778B-384E-BBC1-8AC8C3D0AE3B}">
-  <dimension ref="A2:B63"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="131.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="69" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A42:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785A62F-D363-D940-AAFF-4110D4FCA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C4809-5D59-3343-9F61-0B37B85597BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>List of file in git staging area</t>
   </si>
@@ -88,9 +88,6 @@
     <t>git branch -d &lt;name&gt;</t>
   </si>
   <si>
-    <t>delete specfific branch</t>
-  </si>
-  <si>
     <t>git branch -m &lt;old&gt; &lt;new&gt;</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
   </si>
   <si>
     <t>git checkout &lt;branch name&gt;</t>
-  </si>
-  <si>
-    <t>to get the branch from repo to working directory.</t>
   </si>
   <si>
     <t>git pull</t>
@@ -327,6 +321,125 @@
   </si>
   <si>
     <t xml:space="preserve">git config --list </t>
+  </si>
+  <si>
+    <t>delete specfic branch</t>
+  </si>
+  <si>
+    <t>git remote add upstream &lt;repo_url&gt;</t>
+  </si>
+  <si>
+    <t>If you have forked a repo and clone also in you system</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to get the branch from repo to working directory. And if there you are not working with a branch use this command  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git merge FETCH_HEAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to bring changes into working directory.</t>
+    </r>
+  </si>
+  <si>
+    <t>git fetch upstream -v</t>
+  </si>
+  <si>
+    <t>it will fetch data from upstream repo</t>
+  </si>
+  <si>
+    <t>ls -la .git/refs/remotes/</t>
+  </si>
+  <si>
+    <t>This folder will have all info about remote and upstream branches.</t>
+  </si>
+  <si>
+    <t>git pull upstream &lt;upstram branch name&gt; -v</t>
+  </si>
+  <si>
+    <t>To pull changes from upstream branch</t>
+  </si>
+  <si>
+    <t>git merge upstream/main -v</t>
+  </si>
+  <si>
+    <t>git remote add origin &lt;repo url&gt;</t>
+  </si>
+  <si>
+    <t>To publish local repo into remote repo (first sync the main and master. Either convert both main or master)</t>
+  </si>
+  <si>
+    <t>git push -u &lt;main branch name&gt;</t>
+  </si>
+  <si>
+    <t>.gitignore file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filename, folder/,  *.md </t>
+  </si>
+  <si>
+    <t>if in case you want to ignore a file which you have alredy commited and pushed into remote repo.</t>
+  </si>
+  <si>
+    <t>git rm --cached &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>Git Tags</t>
+  </si>
+  <si>
+    <t>Git tags helps in versioning of projects. As git branches are dynamic commits. And git tags are static commits</t>
+  </si>
+  <si>
+    <t>There are 2 types of tags. Will cover it later on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag </t>
+  </si>
+  <si>
+    <t>To check existing tag in repo</t>
+  </si>
+  <si>
+    <t>git tag v.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create lightweight tags. </t>
+  </si>
+  <si>
+    <t>git show &lt;tag name&gt;</t>
+  </si>
+  <si>
+    <t>To see the details of tags</t>
+  </si>
+  <si>
+    <t>tags are stored in .git/refs/tags file. To check them use  ( ls .git/refs/tags)</t>
+  </si>
+  <si>
+    <t>ls .git/refs/tags</t>
+  </si>
+  <si>
+    <t>To see number of tags in repo</t>
+  </si>
+  <si>
+    <t>cat .git/refs/tags/v.0.0  (tag name)</t>
+  </si>
+  <si>
+    <t>To see that this tag is refering to which commit.</t>
   </si>
 </sst>
 </file>
@@ -370,19 +483,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,31 +913,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8B4CD-778B-384E-BBC1-8AC8C3D0AE3B}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
     <col min="2" max="2" width="131.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -860,10 +974,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,253 +1017,377 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C4809-5D59-3343-9F61-0B37B85597BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4BFCF-1B9A-AB40-9D2E-3029429F1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>List of file in git staging area</t>
   </si>
@@ -440,6 +440,108 @@
   </si>
   <si>
     <t>To see that this tag is refering to which commit.</t>
+  </si>
+  <si>
+    <t>git tag -a v1.0.1 -m "creating annotated tag"</t>
+  </si>
+  <si>
+    <t>To create a annotated tag</t>
+  </si>
+  <si>
+    <t>git tag -v v1.0.1</t>
+  </si>
+  <si>
+    <t>Will give info about annotated tag. So, it is always prefer to annotated tag bez you can see all imp. Info of this tag with this command</t>
+  </si>
+  <si>
+    <t>git push -v --tags</t>
+  </si>
+  <si>
+    <t>To push tags in remote repository. Now in remote repo you can tags option to check versions</t>
+  </si>
+  <si>
+    <t>New tags could be created in remote repo too. By going in tags and release</t>
+  </si>
+  <si>
+    <t>Git Rebase</t>
+  </si>
+  <si>
+    <t>Git rebase is a way of merging of different branches but it will keep all the linear history.   So, some of history will be removed and changed.</t>
+  </si>
+  <si>
+    <t>it's a 4 step process</t>
+  </si>
+  <si>
+    <t>cat .git/HEAD</t>
+  </si>
+  <si>
+    <t>Where head is located.</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>To see commits in a one line message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git lg </t>
+  </si>
+  <si>
+    <t>will give a git tree kind of utility. If in case not available in your system. Then add this code</t>
+  </si>
+  <si>
+    <t>git log --graph</t>
+  </si>
+  <si>
+    <t>To see proper git commits and their diff. histories</t>
+  </si>
+  <si>
+    <t>git graph with one line summary</t>
+  </si>
+  <si>
+    <t>git log --stat</t>
+  </si>
+  <si>
+    <t>will give you detail of history with changes. Which has taken place in a commit also.</t>
+  </si>
+  <si>
+    <t>git log -p</t>
+  </si>
+  <si>
+    <t>Git log advance options</t>
+  </si>
+  <si>
+    <t>will show detailed history of git logs</t>
+  </si>
+  <si>
+    <t>git log -4</t>
+  </si>
+  <si>
+    <t>will show last 4 commits</t>
+  </si>
+  <si>
+    <t>git log --graph --oneline</t>
+  </si>
+  <si>
+    <t>git log -4 --oneline</t>
+  </si>
+  <si>
+    <t>git shortlog</t>
+  </si>
+  <si>
+    <t>will show how many commit have taken place in this repo</t>
+  </si>
+  <si>
+    <t>git shortlog -e</t>
+  </si>
+  <si>
+    <t>will reveal git log with emails of commiter</t>
+  </si>
+  <si>
+    <t>git log --author="Shashanknew47"</t>
+  </si>
+  <si>
+    <t>To reveal commit made by specific author</t>
   </si>
 </sst>
 </file>
@@ -483,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +597,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,6 +722,200 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52294</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3548529</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>896471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87563275-24A7-ED29-7CDD-5C72B05F6342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52294" y="22650825"/>
+          <a:ext cx="3496235" cy="874058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>git checkout feature-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>git rebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>git checkout master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>git merge feature-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>313765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7268881</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>806824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0448425B-6B47-B01D-B7AD-8E1C16BE3460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3712882" y="25310353"/>
+          <a:ext cx="7224058" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>git config --global alias.lg "log --color --graph --pretty=format:'%Cred%h%Creset -%C(yellow)%d%Creset %s %Cgreen(%cr)%C(bold blue)&lt;%an&gt;%Creset' --abbrev-commit"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -913,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8B4CD-778B-384E-BBC1-8AC8C3D0AE3B}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1454,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
@@ -1154,25 +1462,25 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="9"/>
       <c r="B43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="9"/>
       <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -1387,6 +1695,149 @@
       </c>
       <c r="B91" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4BFCF-1B9A-AB40-9D2E-3029429F1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE2095-6AA9-7942-A098-878E42841B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,13 +585,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -601,16 +598,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,13 +630,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>7472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9435352</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>1277471</xdr:rowOff>
@@ -729,13 +726,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>52294</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3548529</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>896471</xdr:rowOff>
@@ -822,13 +819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>313765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>7268881</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>806824</xdr:rowOff>
@@ -1221,628 +1218,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8B4CD-778B-384E-BBC1-8AC8C3D0AE3B}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="B1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" customWidth="1"/>
-    <col min="2" max="2" width="131.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" t="s">
+    <row r="43" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" t="s">
+    <row r="44" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" t="s">
+    <row r="45" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" t="s">
+    <row r="46" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>73</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="2:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C69" s="7"/>
+    </row>
+    <row r="71" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>87</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>93</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>96</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="85" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="86" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>100</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>104</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>109</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>111</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>113</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>115</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="96" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="2:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="7" t="s">
+    <row r="100" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="8"/>
+    </row>
+    <row r="103" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>121</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>123</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+    <row r="108" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>127</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>137</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>130</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>132</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>135</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>139</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>141</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>143</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="1" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE2095-6AA9-7942-A098-878E42841B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFBE5D5-3927-DB4E-92BA-5AA0434EA140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9654F469-6A19-CB40-8C72-7E8BC39600D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,29 +585,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,7 +919,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,7 +1207,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1220,13 +1217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8B4CD-778B-384E-BBC1-8AC8C3D0AE3B}">
   <dimension ref="B1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" customWidth="1"/>
     <col min="3" max="3" width="94.6640625" style="1" customWidth="1"/>
   </cols>
@@ -1452,7 +1449,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1460,25 +1457,25 @@
       </c>
     </row>
     <row r="43" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1566,10 +1563,10 @@
       </c>
     </row>
     <row r="69" spans="2:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="71" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -1638,7 +1635,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -1725,20 +1722,17 @@
       </c>
     </row>
     <row r="99" spans="2:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="8"/>
     </row>
     <row r="103" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
@@ -1749,7 +1743,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1762,10 +1756,10 @@
       </c>
     </row>
     <row r="108" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="3" t="s">
         <v>126</v>
       </c>
     </row>
